--- a/data/trans_dic/P1435-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1435-Habitat-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02785491861303281</v>
+        <v>0.02683509418120928</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02175538443526713</v>
+        <v>0.02165313930675159</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.005605481592152915</v>
+        <v>0.00615181025074665</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03057625538298825</v>
+        <v>0.02926902637770898</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05644513108610039</v>
+        <v>0.05539402775611998</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05085662356074165</v>
+        <v>0.05017513524157453</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02414767850770164</v>
+        <v>0.02442981597230312</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06253626631182362</v>
+        <v>0.06150525127573542</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03699742882929732</v>
+        <v>0.03681698266891153</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02363351926037667</v>
+        <v>0.02366303400189744</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005379946639298333</v>
+        <v>0.005418291791207121</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04296977013738531</v>
+        <v>0.04307589071541366</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06629497331173524</v>
+        <v>0.06792359196256242</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04728203993945972</v>
+        <v>0.04692053063878049</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01842456764050754</v>
+        <v>0.01806858266697876</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06921358636112018</v>
+        <v>0.07010092376046262</v>
       </c>
     </row>
     <row r="10">
@@ -729,7 +729,7 @@
         <v>0.01663521007412416</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.0847735661963849</v>
+        <v>0.08477356619638488</v>
       </c>
     </row>
     <row r="11">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09859250817998562</v>
+        <v>0.09746475716052544</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0401713309819245</v>
+        <v>0.03991924392020527</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009192907920578605</v>
+        <v>0.009161780130566373</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0665037366910297</v>
+        <v>0.06498947182517781</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1473304737673248</v>
+        <v>0.1437053894008407</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07427385490377077</v>
+        <v>0.07363222906552393</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02765968766869793</v>
+        <v>0.0267787890773079</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1110049379122117</v>
+        <v>0.1103500945008627</v>
       </c>
     </row>
     <row r="13">
@@ -793,7 +793,7 @@
         <v>0.03279715043860372</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06317707021032913</v>
+        <v>0.06317707021032914</v>
       </c>
     </row>
     <row r="14">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08020981817899314</v>
+        <v>0.08123198053933263</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02392449568400944</v>
+        <v>0.02447016409760972</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02361549843441633</v>
+        <v>0.02272767364597096</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04950978676561629</v>
+        <v>0.05051566289162918</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1196731675922712</v>
+        <v>0.1178184924046779</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04726364768438615</v>
+        <v>0.04678986547335998</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0454329911336335</v>
+        <v>0.04500392718344236</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07863873284824795</v>
+        <v>0.07934061215237188</v>
       </c>
     </row>
     <row r="16">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06764500949734679</v>
+        <v>0.06828254962595506</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03303629951640324</v>
+        <v>0.03201556469607927</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01444121707289562</v>
+        <v>0.01472226793829834</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05371776213085682</v>
+        <v>0.05362189258272029</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08589958562016063</v>
+        <v>0.08680813227985446</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04573050022860073</v>
+        <v>0.04559053293270065</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0236758387175055</v>
+        <v>0.02348346981164601</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07005433430636625</v>
+        <v>0.06985351668594032</v>
       </c>
     </row>
     <row r="19">
@@ -1046,16 +1046,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>19174</v>
+        <v>18472</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15165</v>
+        <v>15093</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3772</v>
+        <v>4139</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>22404</v>
+        <v>21446</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>38854</v>
+        <v>38131</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>35450</v>
+        <v>34975</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16247</v>
+        <v>16437</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>45822</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>35828</v>
+        <v>35653</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>24318</v>
+        <v>24349</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5611</v>
+        <v>5651</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>45870</v>
+        <v>45983</v>
       </c>
     </row>
     <row r="11">
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>64200</v>
+        <v>65777</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>48652</v>
+        <v>48280</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19215</v>
+        <v>18844</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>73885</v>
+        <v>74833</v>
       </c>
     </row>
     <row r="12">
@@ -1214,16 +1214,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>67422</v>
+        <v>66650</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>31220</v>
+        <v>31024</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7217</v>
+        <v>7192</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>53731</v>
+        <v>52508</v>
       </c>
     </row>
     <row r="15">
@@ -1234,16 +1234,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>100751</v>
+        <v>98272</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>57724</v>
+        <v>57225</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21713</v>
+        <v>21022</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>89686</v>
+        <v>89157</v>
       </c>
     </row>
     <row r="16">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>83307</v>
+        <v>84369</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>25166</v>
+        <v>25740</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>24649</v>
+        <v>23723</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>55228</v>
+        <v>56350</v>
       </c>
     </row>
     <row r="19">
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>124294</v>
+        <v>122368</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>49717</v>
+        <v>49218</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>47422</v>
+        <v>46974</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>87721</v>
+        <v>88504</v>
       </c>
     </row>
     <row r="20">
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>228586</v>
+        <v>230740</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>117447</v>
+        <v>113818</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>51188</v>
+        <v>52184</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>200026</v>
+        <v>199669</v>
       </c>
     </row>
     <row r="23">
@@ -1402,16 +1402,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>290272</v>
+        <v>293342</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>162576</v>
+        <v>162079</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>83920</v>
+        <v>83238</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>260858</v>
+        <v>260110</v>
       </c>
     </row>
     <row r="24">
